--- a/observations/orbit_plans/mtp069/nomad_mtp069_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp069/nomad_mtp069_plan_generic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp069\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E4F6E4-6BA9-4047-96E5-473417477867}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A1DF8E-3844-4F01-81EC-CFBC1BD1D814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="562">
   <si>
     <t>#orbitType</t>
   </si>
@@ -2061,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5608,6 +5608,9 @@
       <c r="A160">
         <v>3</v>
       </c>
+      <c r="H160" t="s">
+        <v>7</v>
+      </c>
       <c r="I160" t="s">
         <v>8</v>
       </c>
@@ -6671,6 +6674,9 @@
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
+      </c>
+      <c r="H206" t="s">
+        <v>7</v>
       </c>
       <c r="I206" t="s">
         <v>8</v>
@@ -6861,6 +6867,9 @@
       <c r="A215">
         <v>3</v>
       </c>
+      <c r="H215" t="s">
+        <v>7</v>
+      </c>
       <c r="I215" t="s">
         <v>8</v>
       </c>
@@ -7254,6 +7263,9 @@
       <c r="A236">
         <v>3</v>
       </c>
+      <c r="H236" t="s">
+        <v>7</v>
+      </c>
       <c r="I236" t="s">
         <v>8</v>
       </c>
@@ -7799,9 +7811,6 @@
       <c r="A273" s="1">
         <v>14</v>
       </c>
-      <c r="H273" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I273" s="1" t="s">
         <v>8</v>
       </c>
@@ -7815,6 +7824,9 @@
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
+      </c>
+      <c r="H274" t="s">
+        <v>7</v>
       </c>
       <c r="I274" t="s">
         <v>8</v>
@@ -8342,7 +8354,7 @@
     </row>
     <row r="310" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>35</v>
@@ -8359,7 +8371,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I311" t="s">
         <v>8</v>
@@ -8488,7 +8500,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I320" t="s">
         <v>8</v>
@@ -8516,7 +8528,7 @@
     </row>
     <row r="322" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>35</v>
